--- a/classfiers/chatty/svm/chatty-svm-default-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8202898550724638</v>
+        <v>0.9841269841269841</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7536231884057971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9967248908296943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.914127586861591</v>
+        <v>0.9968253968253968</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/chatty-svm-default-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-default-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9221153846153847</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9644230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9864734299516907</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9971014492753623</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.5396825396825398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9968253968253968</v>
+        <v>0.9740226681531029</v>
       </c>
     </row>
   </sheetData>
